--- a/ECE-1_timetable.xlsx
+++ b/ECE-1_timetable.xlsx
@@ -504,7 +504,7 @@
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="35" customWidth="1" min="6" max="6"/>
+    <col width="33" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="13" customWidth="1" min="9" max="9"/>
@@ -899,7 +899,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>Dr. Sunil C K/Dr. Sunil Kumar P V</t>
+          <t>Dr. Sunil CK/Dr. Sunil Kumar PV</t>
         </is>
       </c>
       <c r="G10" s="10" t="inlineStr"/>
@@ -925,7 +925,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>Dr. Chinmayananda A</t>
+          <t>Dr. Chinmayananda</t>
         </is>
       </c>
       <c r="G11" s="11" t="inlineStr"/>
@@ -951,7 +951,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>Dr. Anushree</t>
+          <t>Dr. Anusree Kini</t>
         </is>
       </c>
       <c r="G12" s="12" t="inlineStr"/>
@@ -1023,7 +1023,7 @@
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="35" customWidth="1" min="6" max="6"/>
+    <col width="33" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="13" customWidth="1" min="9" max="9"/>
@@ -1155,10 +1155,18 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F2" s="2" t="n"/>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Elective_1</t>
+        </is>
+      </c>
       <c r="G2" s="2" t="n"/>
       <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="n"/>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="J2" s="2" t="n"/>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n"/>
@@ -1189,10 +1197,18 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F3" s="2" t="n"/>
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>Elective_1</t>
+        </is>
+      </c>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
@@ -1346,7 +1362,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>Dr. Sunil C K/Dr. Sunil Kumar P V</t>
+          <t>Dr. Sunil CK/Dr. Sunil Kumar PV</t>
         </is>
       </c>
       <c r="G10" s="10" t="inlineStr"/>
@@ -1372,7 +1388,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>Dr. Chinmayananda A</t>
+          <t>Dr. Chinmayananda</t>
         </is>
       </c>
       <c r="G11" s="11" t="inlineStr"/>
@@ -1398,7 +1414,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>Dr. Anushree</t>
+          <t>Dr. Anusree Kini</t>
         </is>
       </c>
       <c r="G12" s="12" t="inlineStr"/>
@@ -1430,10 +1446,12 @@
       <c r="G13" s="13" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="C4:F4"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
